--- a/SpecsProject/Excel/Inventory_Project_Specifications.xlsx
+++ b/SpecsProject/Excel/Inventory_Project_Specifications.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelos\Documents\GitHub\SpecsProject\SpecsProject\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -276,8 +281,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,21 +587,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -604,7 +609,7 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -621,100 +626,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>35697</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1074.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35697</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1074.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>35697</v>
+        <v>35417</v>
       </c>
       <c r="E4" s="2">
-        <v>1074.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>4845.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>35697</v>
+        <v>37351</v>
       </c>
       <c r="E5" s="2">
-        <v>1074.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>365.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>35417</v>
+        <v>37351</v>
       </c>
       <c r="E6" s="2">
-        <v>4845.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>333.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>37351</v>
       </c>
       <c r="E7" s="2">
-        <v>365.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>524.70000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>37351</v>
       </c>
       <c r="E8" s="2">
-        <v>333.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1134.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>37351</v>
@@ -723,32 +762,32 @@
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>37351</v>
       </c>
       <c r="E10" s="2">
-        <v>1134.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>365.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>37351</v>
@@ -757,981 +796,981 @@
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>37351</v>
       </c>
       <c r="E12" s="2">
+        <v>524.70000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1317.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>217</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E14" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E15" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E17" s="2">
+        <v>519.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1054.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>222</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E19" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E20" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>224</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E21" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E22" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>226</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E23" s="2">
+        <v>333.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E24" s="2">
+        <v>333.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E25" s="2">
         <v>365.7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>214</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E13" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>237</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>37351</v>
+      </c>
+      <c r="E26" s="2">
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>215</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E14" s="2">
-        <v>524.70000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>216</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1317.58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>217</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E16" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>218</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E17" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>219</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E19" s="2">
-        <v>519.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1054.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>222</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E21" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>223</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E22" s="2">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>224</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E23" s="2">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>225</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E24" s="2">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>226</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E25" s="2">
-        <v>333.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>227</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="1">
-        <v>37351</v>
-      </c>
-      <c r="E26" s="2">
-        <v>333.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1">
-        <v>37351</v>
+        <v>34992</v>
       </c>
       <c r="E27" s="2">
-        <v>365.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>208.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1">
-        <v>37351</v>
+        <v>35223</v>
       </c>
       <c r="E28" s="2">
-        <v>524.70000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>901.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1">
-        <v>34992</v>
+        <v>36080</v>
       </c>
       <c r="E29" s="2">
-        <v>208.95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>312.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1">
-        <v>35223</v>
+        <v>36080</v>
       </c>
       <c r="E30" s="2">
-        <v>901.69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>263.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1">
         <v>36080</v>
       </c>
       <c r="E31" s="2">
-        <v>312.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>147.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1">
         <v>36080</v>
       </c>
       <c r="E32" s="2">
-        <v>263.94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1">
-        <v>36080</v>
+        <v>36290</v>
       </c>
       <c r="E33" s="2">
-        <v>147.34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>764.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1">
-        <v>36080</v>
+        <v>36531</v>
       </c>
       <c r="E34" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>4817.43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
       <c r="B35">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1">
-        <v>36290</v>
+        <v>36697</v>
       </c>
       <c r="E35" s="2">
-        <v>764.96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>1598.87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1">
-        <v>36531</v>
+        <v>36769</v>
       </c>
       <c r="E36" s="2">
-        <v>4817.43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>1598.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1">
-        <v>36697</v>
+        <v>38419</v>
       </c>
       <c r="E37" s="2">
-        <v>1598.87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>4774.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
       <c r="B38">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1">
-        <v>36769</v>
+        <v>38574</v>
       </c>
       <c r="E38" s="2">
-        <v>1598.77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>845.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
       <c r="B39">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>38419</v>
+        <v>38635</v>
       </c>
       <c r="E39" s="2">
-        <v>4774.24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>2189.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1">
-        <v>38574</v>
+        <v>38653</v>
       </c>
       <c r="E40" s="2">
-        <v>845.88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>563.91999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1">
-        <v>38635</v>
+        <v>38874</v>
       </c>
       <c r="E41" s="2">
-        <v>2189.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>4803.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
       <c r="B42">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" s="1">
-        <v>38653</v>
+        <v>39212</v>
       </c>
       <c r="E42" s="2">
-        <v>563.91999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
       <c r="B43">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1">
-        <v>38874</v>
+        <v>39234</v>
       </c>
       <c r="E43" s="2">
-        <v>4803.13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>1794.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
       <c r="B44">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1">
-        <v>39212</v>
+        <v>39605</v>
       </c>
       <c r="E44" s="2">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>1568.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
       <c r="B45">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1">
-        <v>39234</v>
+        <v>39645</v>
       </c>
       <c r="E45" s="2">
-        <v>1794.17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>1314.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D46" s="1">
-        <v>39605</v>
+        <v>39932</v>
       </c>
       <c r="E46" s="2">
-        <v>1568.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>1647.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1">
-        <v>39645</v>
+        <v>40032</v>
       </c>
       <c r="E47" s="2">
-        <v>1314.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>5342.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
       <c r="B48">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1">
-        <v>39932</v>
+        <v>40042</v>
       </c>
       <c r="E48" s="2">
-        <v>1647.24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>6824.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="1">
+        <v>40045</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2117.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <v>341</v>
+      </c>
+      <c r="C50" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="1">
-        <v>40032</v>
-      </c>
-      <c r="E49" s="2">
-        <v>5342.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50">
-        <v>339</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
       <c r="D50" s="1">
-        <v>40042</v>
+        <v>40045</v>
       </c>
       <c r="E50" s="2">
-        <v>6824.28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>2423.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
       <c r="B51">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1">
         <v>40045</v>
       </c>
       <c r="E51" s="2">
-        <v>2117.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D52" s="1">
-        <v>40045</v>
+        <v>40148</v>
       </c>
       <c r="E52" s="2">
-        <v>2423.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>200.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1">
-        <v>40045</v>
+        <v>40315</v>
       </c>
       <c r="E53" s="2">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>1240.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
       <c r="B54">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>40148</v>
+        <v>40315</v>
       </c>
       <c r="E54" s="2">
-        <v>200.34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>1234.9000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
       <c r="B55">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>40315</v>
+        <v>40746</v>
       </c>
       <c r="E55" s="2">
-        <v>1240.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1523.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
       <c r="B56">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1">
-        <v>40315</v>
+        <v>40900</v>
       </c>
       <c r="E56" s="2">
-        <v>1234.9000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>2779.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
       <c r="B57">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1">
-        <v>40746</v>
+        <v>41262</v>
       </c>
       <c r="E57" s="2">
-        <v>1523.22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>1968.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1">
-        <v>40900</v>
+        <v>39254</v>
       </c>
       <c r="E58" s="2">
-        <v>2779.85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>2201.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1">
-        <v>41262</v>
+        <v>39721</v>
       </c>
       <c r="E59" s="2">
-        <v>1968.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>1896.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="1">
-        <v>39254</v>
+        <v>39553</v>
       </c>
       <c r="E60" s="2">
-        <v>2201.12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>3051.69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D61" s="1">
-        <v>39721</v>
+        <v>40022</v>
       </c>
       <c r="E61" s="2">
-        <v>1896.34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>2169.81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1">
-        <v>39553</v>
+        <v>40254</v>
       </c>
       <c r="E62" s="2">
-        <v>3051.69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>2134.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
       <c r="B63">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="1">
-        <v>40022</v>
+        <v>40395</v>
       </c>
       <c r="E63" s="2">
-        <v>2169.81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>2056.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>59</v>
       </c>
       <c r="B64">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1">
-        <v>40254</v>
+        <v>40443</v>
       </c>
       <c r="E64" s="2">
-        <v>2134.31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>803.48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
       <c r="B65">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1">
-        <v>40395</v>
+        <v>40568</v>
       </c>
       <c r="E65" s="2">
-        <v>2056.4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>1641.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
       <c r="B66">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D66" s="1">
-        <v>40443</v>
+        <v>40763</v>
       </c>
       <c r="E66" s="2">
-        <v>803.48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>1817.37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>59</v>
       </c>
       <c r="B67">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>40568</v>
+        <v>40851</v>
       </c>
       <c r="E67" s="2">
-        <v>1641.94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>1206.68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
       <c r="B68">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1">
-        <v>40763</v>
+        <v>40862</v>
       </c>
       <c r="E68" s="2">
-        <v>1817.37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1241.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
       <c r="B69">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -1743,29 +1782,29 @@
         <v>1206.68</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>59</v>
       </c>
       <c r="B70">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>40862</v>
+        <v>40851</v>
       </c>
       <c r="E70" s="2">
-        <v>1241.26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>1206.68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
       <c r="B71">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -1774,137 +1813,137 @@
         <v>40851</v>
       </c>
       <c r="E71" s="2">
-        <v>1206.68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>1206.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
       <c r="B72">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
       </c>
       <c r="D72" s="1">
-        <v>40851</v>
+        <v>41115</v>
       </c>
       <c r="E72" s="2">
-        <v>1206.68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1403.97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>59</v>
       </c>
       <c r="B73">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D73" s="1">
-        <v>40851</v>
+        <v>41248</v>
       </c>
       <c r="E73" s="2">
-        <v>1206.67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>1338.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
       <c r="B74">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" s="1">
-        <v>41115</v>
+        <v>41264</v>
       </c>
       <c r="E74" s="2">
-        <v>1403.97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>7485.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>59</v>
       </c>
       <c r="B75">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D75" s="1">
-        <v>41248</v>
+        <v>41445</v>
       </c>
       <c r="E75" s="2">
-        <v>1338.62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>8062.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>59</v>
       </c>
       <c r="B76">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D76" s="1">
-        <v>41264</v>
+        <v>41536</v>
       </c>
       <c r="E76" s="2">
-        <v>7485.72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>1150.0999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>59</v>
       </c>
       <c r="B77">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D77" s="1">
-        <v>41445</v>
+        <v>41808</v>
       </c>
       <c r="E77" s="2">
-        <v>8062.36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>773.79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>59</v>
       </c>
       <c r="B78">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1">
-        <v>41536</v>
+        <v>41808</v>
       </c>
       <c r="E78" s="2">
-        <v>1150.0999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>773.79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>59</v>
       </c>
       <c r="B79">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D79" s="1">
         <v>41808</v>
@@ -1913,66 +1952,66 @@
         <v>773.79</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>59</v>
       </c>
       <c r="B80">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D80" s="1">
-        <v>41808</v>
+        <v>41849</v>
       </c>
       <c r="E80" s="2">
-        <v>773.79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>1156.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
       <c r="B81">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D81" s="1">
-        <v>41808</v>
+        <v>41891</v>
       </c>
       <c r="E81" s="2">
-        <v>773.79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>1649.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
       <c r="B82">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C82" t="s">
         <v>62</v>
       </c>
       <c r="D82" s="1">
-        <v>41849</v>
+        <v>41990</v>
       </c>
       <c r="E82" s="2">
-        <v>1156.46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>1407.68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>59</v>
       </c>
       <c r="B83">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D83" s="1">
         <v>41891</v>
@@ -1981,105 +2020,71 @@
         <v>1649.09</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
       <c r="B84">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D84" s="1">
-        <v>41990</v>
+        <v>42166</v>
       </c>
       <c r="E84" s="2">
-        <v>1407.68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>2431.64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B85">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D85" s="1">
-        <v>41891</v>
+        <v>38709</v>
       </c>
       <c r="E85" s="2">
-        <v>1649.09</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>505.44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B86">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D86" s="1">
-        <v>42166</v>
+        <v>40245</v>
       </c>
       <c r="E86" s="2">
-        <v>2431.64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>604.20000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
       <c r="B87">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D87" s="1">
-        <v>38709</v>
+        <v>40856</v>
       </c>
       <c r="E87" s="2">
-        <v>505.44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88">
-        <v>349</v>
-      </c>
-      <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="1">
-        <v>40245</v>
-      </c>
-      <c r="E88" s="2">
-        <v>604.20000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89">
-        <v>372</v>
-      </c>
-      <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="1">
-        <v>40856</v>
-      </c>
-      <c r="E89" s="2">
         <v>1046.75</v>
       </c>
     </row>
